--- a/Income/data/PPI.xlsx
+++ b/Income/data/PPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\Ingresos - SIGAF\AI ---\Insumos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\GitHub\Python\Projetcs\P3\Data-Manipulation-with-Python\Income\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2B524A-995D-4FAE-8EA3-FE48D3B8161E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC4B3C0-C0D0-4A7D-B76A-06A3292F4E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29745" yWindow="-120" windowWidth="27975" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>

--- a/Income/data/PPI.xlsx
+++ b/Income/data/PPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\GitHub\Python\Projetcs\P3\Data-Manipulation-with-Python\Income\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC4B3C0-C0D0-4A7D-B76A-06A3292F4E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3062803B-FFEA-4CF9-AD8D-575E864D6392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29745" yWindow="-120" windowWidth="27975" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2592,7 +2592,7 @@
   <dimension ref="A1:N2147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2148" sqref="A2148"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
